--- a/inst/extdata/Power Consumption by Province M.xlsx
+++ b/inst/extdata/Power Consumption by Province M.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauri\Documents\Rpackages\china_co2\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauri\Documents\RPackages\china_co2\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B56ED13-0987-4E1C-AF02-DD6974F7919B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950C1C0F-7111-4F24-BEB0-A498AC87FFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1570" yWindow="-110" windowWidth="36940" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Consumption_ Beijing_ YTD" sheetId="1" r:id="rId1"/>
@@ -272,10 +272,10 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2007-12:2023-05</t>
+    <t>2007-12:2023-08</t>
   </si>
   <si>
-    <t>2023-06-29</t>
+    <t>2023-09-27</t>
   </si>
 </sst>
 </file>
@@ -284,9 +284,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="165" formatCode="yyyy/mm"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -330,14 +330,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -676,13 +676,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF192"/>
+  <dimension ref="A1:AF195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
@@ -697,638 +697,638 @@
     <col min="31" max="32" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:32">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AC2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AD2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AE2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AF2" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:32">
+      <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="X3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Y3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="Z3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AA3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AB3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AC3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AD3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AE3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AF3" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:32">
+      <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:32">
+      <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="T5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="U5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="V5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="W5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="X5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="Y5" s="4" t="s">
+      <c r="Y5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Z5" s="4" t="s">
+      <c r="Z5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AA5" s="4" t="s">
+      <c r="AA5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AB5" s="4" t="s">
+      <c r="AB5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AC5" s="4" t="s">
+      <c r="AC5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AD5" s="4" t="s">
+      <c r="AD5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AE5" s="4" t="s">
+      <c r="AE5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AF5" s="4" t="s">
+      <c r="AF5" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:32">
+      <c r="A6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="R6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="T6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="U6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="V6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="W6" s="4" t="s">
+      <c r="W6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="X6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Y6" s="4" t="s">
+      <c r="Y6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Z6" s="4" t="s">
+      <c r="Z6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AA6" s="4" t="s">
+      <c r="AA6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AB6" s="4" t="s">
+      <c r="AB6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AC6" s="4" t="s">
+      <c r="AC6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AD6" s="4" t="s">
+      <c r="AD6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AE6" s="4" t="s">
+      <c r="AE6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AF6" s="4" t="s">
+      <c r="AF6" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:32">
+      <c r="A7" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="R7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="S7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="T7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="U7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="V7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="W7" s="4" t="s">
+      <c r="W7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="X7" s="4" t="s">
+      <c r="X7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Y7" s="4" t="s">
+      <c r="Y7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Z7" s="4" t="s">
+      <c r="Z7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AA7" s="4" t="s">
+      <c r="AA7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AB7" s="4" t="s">
+      <c r="AB7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AC7" s="4" t="s">
+      <c r="AC7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AD7" s="4" t="s">
+      <c r="AD7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AE7" s="4" t="s">
+      <c r="AE7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AF7" s="4" t="s">
+      <c r="AF7" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:32">
+      <c r="A8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="O8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="P8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="Q8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="R8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="S8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="T8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="U8" s="5" t="s">
+      <c r="U8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="V8" s="5" t="s">
+      <c r="V8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="W8" s="5" t="s">
+      <c r="W8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="X8" s="5" t="s">
+      <c r="X8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Y8" s="5" t="s">
+      <c r="Y8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Z8" s="5" t="s">
+      <c r="Z8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AA8" s="5" t="s">
+      <c r="AA8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AB8" s="5" t="s">
+      <c r="AB8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AC8" s="5" t="s">
+      <c r="AC8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AD8" s="5" t="s">
+      <c r="AD8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AE8" s="5" t="s">
+      <c r="AE8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AF8" s="5" t="s">
+      <c r="AF8" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
+    <row r="9" spans="1:32">
+      <c r="A9" s="5">
         <v>39447</v>
       </c>
       <c r="B9" s="2">
@@ -1425,8 +1425,8 @@
         <v>4130000</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
+    <row r="10" spans="1:32">
+      <c r="A10" s="5">
         <v>39478</v>
       </c>
       <c r="B10" s="2">
@@ -1523,8 +1523,8 @@
         <v>343604</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+    <row r="11" spans="1:32">
+      <c r="A11" s="5">
         <v>39507</v>
       </c>
       <c r="B11" s="2">
@@ -1621,8 +1621,8 @@
         <v>665185</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
+    <row r="12" spans="1:32">
+      <c r="A12" s="5">
         <v>39538</v>
       </c>
       <c r="B12" s="2">
@@ -1719,8 +1719,8 @@
         <v>1006963</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
+    <row r="13" spans="1:32">
+      <c r="A13" s="5">
         <v>39568</v>
       </c>
       <c r="B13" s="2">
@@ -1817,8 +1817,8 @@
         <v>1412369</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
+    <row r="14" spans="1:32">
+      <c r="A14" s="5">
         <v>39599</v>
       </c>
       <c r="B14" s="2">
@@ -1915,8 +1915,8 @@
         <v>1793849</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
+    <row r="15" spans="1:32">
+      <c r="A15" s="5">
         <v>39629</v>
       </c>
       <c r="B15" s="2">
@@ -2013,8 +2013,8 @@
         <v>2244524</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
+    <row r="16" spans="1:32">
+      <c r="A16" s="5">
         <v>39660</v>
       </c>
       <c r="B16" s="2">
@@ -2111,8 +2111,8 @@
         <v>2731467</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
+    <row r="17" spans="1:32">
+      <c r="A17" s="5">
         <v>39691</v>
       </c>
       <c r="B17" s="2">
@@ -2209,8 +2209,8 @@
         <v>3176486</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
+    <row r="18" spans="1:32">
+      <c r="A18" s="5">
         <v>39721</v>
       </c>
       <c r="B18" s="2">
@@ -2307,8 +2307,8 @@
         <v>3577000</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
+    <row r="19" spans="1:32">
+      <c r="A19" s="5">
         <v>39752</v>
       </c>
       <c r="B19" s="2">
@@ -2405,8 +2405,8 @@
         <v>4003128</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
+    <row r="20" spans="1:32">
+      <c r="A20" s="5">
         <v>39782</v>
       </c>
       <c r="B20" s="2">
@@ -2503,8 +2503,8 @@
         <v>4413127</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
+    <row r="21" spans="1:32">
+      <c r="A21" s="5">
         <v>39813</v>
       </c>
       <c r="B21" s="2">
@@ -2601,8 +2601,8 @@
         <v>4790000</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
+    <row r="22" spans="1:32">
+      <c r="A22" s="5">
         <v>39844</v>
       </c>
       <c r="B22" s="2">
@@ -2699,8 +2699,8 @@
         <v>331214</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
+    <row r="23" spans="1:32">
+      <c r="A23" s="5">
         <v>39872</v>
       </c>
       <c r="B23" s="2">
@@ -2797,8 +2797,8 @@
         <v>663855</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A24" s="3">
+    <row r="24" spans="1:32">
+      <c r="A24" s="5">
         <v>39903</v>
       </c>
       <c r="B24" s="2">
@@ -2895,8 +2895,8 @@
         <v>1054452</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A25" s="3">
+    <row r="25" spans="1:32">
+      <c r="A25" s="5">
         <v>39933</v>
       </c>
       <c r="B25" s="2">
@@ -2993,8 +2993,8 @@
         <v>1458321</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
+    <row r="26" spans="1:32">
+      <c r="A26" s="5">
         <v>39964</v>
       </c>
       <c r="B26" s="2">
@@ -3091,8 +3091,8 @@
         <v>1898182</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
+    <row r="27" spans="1:32">
+      <c r="A27" s="5">
         <v>39994</v>
       </c>
       <c r="B27" s="2">
@@ -3189,8 +3189,8 @@
         <v>2394425</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A28" s="3">
+    <row r="28" spans="1:32">
+      <c r="A28" s="5">
         <v>40025</v>
       </c>
       <c r="B28" s="2">
@@ -3287,8 +3287,8 @@
         <v>2933943</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A29" s="3">
+    <row r="29" spans="1:32">
+      <c r="A29" s="5">
         <v>40056</v>
       </c>
       <c r="B29" s="2">
@@ -3385,8 +3385,8 @@
         <v>3478315</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A30" s="3">
+    <row r="30" spans="1:32">
+      <c r="A30" s="5">
         <v>40086</v>
       </c>
       <c r="B30" s="2">
@@ -3483,8 +3483,8 @@
         <v>3952503</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A31" s="3">
+    <row r="31" spans="1:32">
+      <c r="A31" s="5">
         <v>40117</v>
       </c>
       <c r="B31" s="2">
@@ -3581,8 +3581,8 @@
         <v>4453417</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A32" s="3">
+    <row r="32" spans="1:32">
+      <c r="A32" s="5">
         <v>40147</v>
       </c>
       <c r="B32" s="2">
@@ -3679,8 +3679,8 @@
         <v>4453417</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A33" s="3">
+    <row r="33" spans="1:32">
+      <c r="A33" s="5">
         <v>40178</v>
       </c>
       <c r="B33" s="2">
@@ -3777,8 +3777,8 @@
         <v>5450000</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A34" s="3">
+    <row r="34" spans="1:32">
+      <c r="A34" s="5">
         <v>40209</v>
       </c>
       <c r="B34" s="2">
@@ -3875,8 +3875,8 @@
         <v>447849</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A35" s="3">
+    <row r="35" spans="1:32">
+      <c r="A35" s="5">
         <v>40237</v>
       </c>
       <c r="B35" s="2">
@@ -3973,8 +3973,8 @@
         <v>944203</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A36" s="3">
+    <row r="36" spans="1:32">
+      <c r="A36" s="5">
         <v>40268</v>
       </c>
       <c r="B36" s="2">
@@ -4071,8 +4071,8 @@
         <v>1379628</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A37" s="3">
+    <row r="37" spans="1:32">
+      <c r="A37" s="5">
         <v>40298</v>
       </c>
       <c r="B37" s="2">
@@ -4169,8 +4169,8 @@
         <v>1908735</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A38" s="3">
+    <row r="38" spans="1:32">
+      <c r="A38" s="5">
         <v>40329</v>
       </c>
       <c r="B38" s="2">
@@ -4267,8 +4267,8 @@
         <v>2400000</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A39" s="3">
+    <row r="39" spans="1:32">
+      <c r="A39" s="5">
         <v>40359</v>
       </c>
       <c r="B39" s="2">
@@ -4365,8 +4365,8 @@
         <v>2990000</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A40" s="3">
+    <row r="40" spans="1:32">
+      <c r="A40" s="5">
         <v>40390</v>
       </c>
       <c r="B40" s="2">
@@ -4463,8 +4463,8 @@
         <v>3630000</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A41" s="3">
+    <row r="41" spans="1:32">
+      <c r="A41" s="5">
         <v>40421</v>
       </c>
       <c r="B41" s="2">
@@ -4561,8 +4561,8 @@
         <v>4274700</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A42" s="3">
+    <row r="42" spans="1:32">
+      <c r="A42" s="5">
         <v>40451</v>
       </c>
       <c r="B42" s="2">
@@ -4659,8 +4659,8 @@
         <v>4831600</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A43" s="3">
+    <row r="43" spans="1:32">
+      <c r="A43" s="5">
         <v>40482</v>
       </c>
       <c r="B43" s="2">
@@ -4757,8 +4757,8 @@
         <v>5440000</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A44" s="3">
+    <row r="44" spans="1:32">
+      <c r="A44" s="5">
         <v>40512</v>
       </c>
       <c r="B44" s="2">
@@ -4855,8 +4855,8 @@
         <v>5973006</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A45" s="3">
+    <row r="45" spans="1:32">
+      <c r="A45" s="5">
         <v>40543</v>
       </c>
       <c r="B45" s="2">
@@ -4953,8 +4953,8 @@
         <v>6620000</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A46" s="3">
+    <row r="46" spans="1:32">
+      <c r="A46" s="5">
         <v>40574</v>
       </c>
       <c r="B46" s="2">
@@ -5051,8 +5051,8 @@
         <v>630000</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A47" s="3">
+    <row r="47" spans="1:32">
+      <c r="A47" s="5">
         <v>40602</v>
       </c>
       <c r="B47" s="2">
@@ -5149,8 +5149,8 @@
         <v>1120000</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A48" s="3">
+    <row r="48" spans="1:32">
+      <c r="A48" s="5">
         <v>40633</v>
       </c>
       <c r="B48" s="2">
@@ -5247,8 +5247,8 @@
         <v>1680000</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A49" s="3">
+    <row r="49" spans="1:32">
+      <c r="A49" s="5">
         <v>40663</v>
       </c>
       <c r="B49" s="2">
@@ -5345,8 +5345,8 @@
         <v>2430000</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A50" s="3">
+    <row r="50" spans="1:32">
+      <c r="A50" s="5">
         <v>40694</v>
       </c>
       <c r="B50" s="2">
@@ -5443,8 +5443,8 @@
         <v>3110000</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A51" s="3">
+    <row r="51" spans="1:32">
+      <c r="A51" s="5">
         <v>40724</v>
       </c>
       <c r="B51" s="2">
@@ -5541,8 +5541,8 @@
         <v>3900000</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A52" s="3">
+    <row r="52" spans="1:32">
+      <c r="A52" s="5">
         <v>40755</v>
       </c>
       <c r="B52" s="2">
@@ -5639,8 +5639,8 @@
         <v>4650000</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A53" s="3">
+    <row r="53" spans="1:32">
+      <c r="A53" s="5">
         <v>40786</v>
       </c>
       <c r="B53" s="2">
@@ -5737,8 +5737,8 @@
         <v>5470000</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A54" s="3">
+    <row r="54" spans="1:32">
+      <c r="A54" s="5">
         <v>40816</v>
       </c>
       <c r="B54" s="2">
@@ -5835,8 +5835,8 @@
         <v>6070000</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A55" s="3">
+    <row r="55" spans="1:32">
+      <c r="A55" s="5">
         <v>40847</v>
       </c>
       <c r="B55" s="2">
@@ -5933,8 +5933,8 @@
         <v>6990000</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A56" s="3">
+    <row r="56" spans="1:32">
+      <c r="A56" s="5">
         <v>40877</v>
       </c>
       <c r="B56" s="2">
@@ -6031,8 +6031,8 @@
         <v>7620000</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A57" s="3">
+    <row r="57" spans="1:32">
+      <c r="A57" s="5">
         <v>40908</v>
       </c>
       <c r="B57" s="2">
@@ -6129,8 +6129,8 @@
         <v>8390000</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A58" s="3">
+    <row r="58" spans="1:32">
+      <c r="A58" s="5">
         <v>40939</v>
       </c>
       <c r="B58" s="2">
@@ -6227,8 +6227,8 @@
         <v>730000</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A59" s="3">
+    <row r="59" spans="1:32">
+      <c r="A59" s="5">
         <v>40968</v>
       </c>
       <c r="B59" s="2">
@@ -6325,8 +6325,8 @@
         <v>1440000</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A60" s="3">
+    <row r="60" spans="1:32">
+      <c r="A60" s="5">
         <v>40999</v>
       </c>
       <c r="B60" s="2">
@@ -6423,8 +6423,8 @@
         <v>2190000</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A61" s="3">
+    <row r="61" spans="1:32">
+      <c r="A61" s="5">
         <v>41029</v>
       </c>
       <c r="B61" s="2">
@@ -6521,8 +6521,8 @@
         <v>3028863</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A62" s="3">
+    <row r="62" spans="1:32">
+      <c r="A62" s="5">
         <v>41060</v>
       </c>
       <c r="B62" s="2">
@@ -6619,8 +6619,8 @@
         <v>3891823</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A63" s="3">
+    <row r="63" spans="1:32">
+      <c r="A63" s="5">
         <v>41090</v>
       </c>
       <c r="B63" s="2">
@@ -6717,8 +6717,8 @@
         <v>4868829</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A64" s="3">
+    <row r="64" spans="1:32">
+      <c r="A64" s="5">
         <v>41121</v>
       </c>
       <c r="B64" s="2">
@@ -6815,8 +6815,8 @@
         <v>6114933</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A65" s="3">
+    <row r="65" spans="1:32">
+      <c r="A65" s="5">
         <v>41152</v>
       </c>
       <c r="B65" s="2">
@@ -6913,8 +6913,8 @@
         <v>7139136</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A66" s="3">
+    <row r="66" spans="1:32">
+      <c r="A66" s="5">
         <v>41182</v>
       </c>
       <c r="B66" s="2">
@@ -7011,8 +7011,8 @@
         <v>8106295</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A67" s="3">
+    <row r="67" spans="1:32">
+      <c r="A67" s="5">
         <v>41213</v>
       </c>
       <c r="B67" s="2">
@@ -7109,8 +7109,8 @@
         <v>9038610</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A68" s="3">
+    <row r="68" spans="1:32">
+      <c r="A68" s="5">
         <v>41243</v>
       </c>
       <c r="B68" s="2">
@@ -7207,8 +7207,8 @@
         <v>10030000</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A69" s="3">
+    <row r="69" spans="1:32">
+      <c r="A69" s="5">
         <v>41274</v>
       </c>
       <c r="B69" s="2">
@@ -7305,8 +7305,8 @@
         <v>10081913</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A70" s="3">
+    <row r="70" spans="1:32">
+      <c r="A70" s="5">
         <v>41305</v>
       </c>
       <c r="B70" s="2">
@@ -7403,8 +7403,8 @@
         <v>935363</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A71" s="3">
+    <row r="71" spans="1:32">
+      <c r="A71" s="5">
         <v>41333</v>
       </c>
       <c r="B71" s="2">
@@ -7501,8 +7501,8 @@
         <v>1781094</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A72" s="3">
+    <row r="72" spans="1:32">
+      <c r="A72" s="5">
         <v>41364</v>
       </c>
       <c r="B72" s="2">
@@ -7599,8 +7599,8 @@
         <v>2690109</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A73" s="3">
+    <row r="73" spans="1:32">
+      <c r="A73" s="5">
         <v>41394</v>
       </c>
       <c r="B73" s="2">
@@ -7697,8 +7697,8 @@
         <v>3747536</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A74" s="3">
+    <row r="74" spans="1:32">
+      <c r="A74" s="5">
         <v>41425</v>
       </c>
       <c r="B74" s="2">
@@ -7795,8 +7795,8 @@
         <v>4809933</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A75" s="3">
+    <row r="75" spans="1:32">
+      <c r="A75" s="5">
         <v>41455</v>
       </c>
       <c r="B75" s="2">
@@ -7893,8 +7893,8 @@
         <v>6021499</v>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A76" s="3">
+    <row r="76" spans="1:32">
+      <c r="A76" s="5">
         <v>41486</v>
       </c>
       <c r="B76" s="2">
@@ -7991,8 +7991,8 @@
         <v>7263964</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A77" s="3">
+    <row r="77" spans="1:32">
+      <c r="A77" s="5">
         <v>41517</v>
       </c>
       <c r="B77" s="2">
@@ -8089,8 +8089,8 @@
         <v>8568630</v>
       </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A78" s="3">
+    <row r="78" spans="1:32">
+      <c r="A78" s="5">
         <v>41547</v>
       </c>
       <c r="B78" s="2">
@@ -8187,8 +8187,8 @@
         <v>9724048</v>
       </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A79" s="3">
+    <row r="79" spans="1:32">
+      <c r="A79" s="5">
         <v>41578</v>
       </c>
       <c r="B79" s="2">
@@ -8285,8 +8285,8 @@
         <v>10862783</v>
       </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A80" s="3">
+    <row r="80" spans="1:32">
+      <c r="A80" s="5">
         <v>41608</v>
       </c>
       <c r="B80" s="2">
@@ -8383,8 +8383,8 @@
         <v>12158966</v>
       </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A81" s="3">
+    <row r="81" spans="1:32">
+      <c r="A81" s="5">
         <v>41639</v>
       </c>
       <c r="B81" s="2">
@@ -8481,8 +8481,8 @@
         <v>13415310</v>
       </c>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A82" s="3">
+    <row r="82" spans="1:32">
+      <c r="A82" s="5">
         <v>41670</v>
       </c>
       <c r="B82" s="2">
@@ -8579,8 +8579,8 @@
         <v>1134410</v>
       </c>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A83" s="3">
+    <row r="83" spans="1:32">
+      <c r="A83" s="5">
         <v>41698</v>
       </c>
       <c r="B83" s="2">
@@ -8677,8 +8677,8 @@
         <v>2176665</v>
       </c>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A84" s="3">
+    <row r="84" spans="1:32">
+      <c r="A84" s="5">
         <v>41729</v>
       </c>
       <c r="B84" s="2">
@@ -8775,8 +8775,8 @@
         <v>3290000</v>
       </c>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A85" s="3">
+    <row r="85" spans="1:32">
+      <c r="A85" s="5">
         <v>41759</v>
       </c>
       <c r="B85" s="2">
@@ -8873,8 +8873,8 @@
         <v>4540000</v>
       </c>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A86" s="3">
+    <row r="86" spans="1:32">
+      <c r="A86" s="5">
         <v>41790</v>
       </c>
       <c r="B86" s="2">
@@ -8971,8 +8971,8 @@
         <v>5820000</v>
       </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A87" s="3">
+    <row r="87" spans="1:32">
+      <c r="A87" s="5">
         <v>41820</v>
       </c>
       <c r="B87" s="2">
@@ -9069,8 +9069,8 @@
         <v>7200000</v>
       </c>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A88" s="3">
+    <row r="88" spans="1:32">
+      <c r="A88" s="5">
         <v>41851</v>
       </c>
       <c r="B88" s="2">
@@ -9167,8 +9167,8 @@
         <v>8570000</v>
       </c>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A89" s="3">
+    <row r="89" spans="1:32">
+      <c r="A89" s="5">
         <v>41882</v>
       </c>
       <c r="B89" s="2">
@@ -9265,8 +9265,8 @@
         <v>9980000</v>
       </c>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A90" s="3">
+    <row r="90" spans="1:32">
+      <c r="A90" s="5">
         <v>41912</v>
       </c>
       <c r="B90" s="2">
@@ -9363,8 +9363,8 @@
         <v>11186705</v>
       </c>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A91" s="3">
+    <row r="91" spans="1:32">
+      <c r="A91" s="5">
         <v>41943</v>
       </c>
       <c r="B91" s="2">
@@ -9461,8 +9461,8 @@
         <v>12374407</v>
       </c>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A92" s="3">
+    <row r="92" spans="1:32">
+      <c r="A92" s="5">
         <v>41973</v>
       </c>
       <c r="B92" s="2">
@@ -9559,8 +9559,8 @@
         <v>13792904</v>
       </c>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A93" s="3">
+    <row r="93" spans="1:32">
+      <c r="A93" s="5">
         <v>42004</v>
       </c>
       <c r="B93" s="2">
@@ -9657,8 +9657,8 @@
         <v>14980000</v>
       </c>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A94" s="3">
+    <row r="94" spans="1:32">
+      <c r="A94" s="5">
         <v>42035</v>
       </c>
       <c r="B94" s="2">
@@ -9755,8 +9755,8 @@
         <v>1339679</v>
       </c>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A95" s="3">
+    <row r="95" spans="1:32">
+      <c r="A95" s="5">
         <v>42063</v>
       </c>
       <c r="B95" s="2">
@@ -9853,8 +9853,8 @@
         <v>2453446</v>
       </c>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A96" s="3">
+    <row r="96" spans="1:32">
+      <c r="A96" s="5">
         <v>42094</v>
       </c>
       <c r="B96" s="2">
@@ -9951,8 +9951,8 @@
         <v>3648492</v>
       </c>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A97" s="3">
+    <row r="97" spans="1:32">
+      <c r="A97" s="5">
         <v>42124</v>
       </c>
       <c r="B97" s="2">
@@ -10049,8 +10049,8 @@
         <v>4958344</v>
       </c>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A98" s="3">
+    <row r="98" spans="1:32">
+      <c r="A98" s="5">
         <v>42155</v>
       </c>
       <c r="B98" s="2">
@@ -10147,8 +10147,8 @@
         <v>6261198</v>
       </c>
     </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A99" s="3">
+    <row r="99" spans="1:32">
+      <c r="A99" s="5">
         <v>42185</v>
       </c>
       <c r="B99" s="2">
@@ -10245,8 +10245,8 @@
         <v>7739912</v>
       </c>
     </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A100" s="3">
+    <row r="100" spans="1:32">
+      <c r="A100" s="5">
         <v>42216</v>
       </c>
       <c r="B100" s="2">
@@ -10343,8 +10343,8 @@
         <v>9174091</v>
       </c>
     </row>
-    <row r="101" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A101" s="3">
+    <row r="101" spans="1:32">
+      <c r="A101" s="5">
         <v>42247</v>
       </c>
       <c r="B101" s="2">
@@ -10441,8 +10441,8 @@
         <v>10656838</v>
       </c>
     </row>
-    <row r="102" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A102" s="3">
+    <row r="102" spans="1:32">
+      <c r="A102" s="5">
         <v>42277</v>
       </c>
       <c r="B102" s="2">
@@ -10539,8 +10539,8 @@
         <v>12028138</v>
       </c>
     </row>
-    <row r="103" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A103" s="3">
+    <row r="103" spans="1:32">
+      <c r="A103" s="5">
         <v>42308</v>
       </c>
       <c r="B103" s="2">
@@ -10637,8 +10637,8 @@
         <v>13367530</v>
       </c>
     </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A104" s="3">
+    <row r="104" spans="1:32">
+      <c r="A104" s="5">
         <v>42338</v>
       </c>
       <c r="B104" s="2">
@@ -10735,8 +10735,8 @@
         <v>14630532</v>
       </c>
     </row>
-    <row r="105" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A105" s="3">
+    <row r="105" spans="1:32">
+      <c r="A105" s="5">
         <v>42369</v>
       </c>
       <c r="B105" s="2">
@@ -10833,8 +10833,8 @@
         <v>16023003</v>
       </c>
     </row>
-    <row r="106" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A106" s="3">
+    <row r="106" spans="1:32">
+      <c r="A106" s="5">
         <v>42400</v>
       </c>
       <c r="B106" s="2">
@@ -10931,8 +10931,8 @@
         <v>1456450</v>
       </c>
     </row>
-    <row r="107" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A107" s="3">
+    <row r="107" spans="1:32">
+      <c r="A107" s="5">
         <v>42429</v>
       </c>
       <c r="B107" s="2">
@@ -11029,8 +11029,8 @@
         <v>2702902</v>
       </c>
     </row>
-    <row r="108" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A108" s="3">
+    <row r="108" spans="1:32">
+      <c r="A108" s="5">
         <v>42460</v>
       </c>
       <c r="B108" s="2">
@@ -11127,8 +11127,8 @@
         <v>4078599</v>
       </c>
     </row>
-    <row r="109" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A109" s="3">
+    <row r="109" spans="1:32">
+      <c r="A109" s="5">
         <v>42490</v>
       </c>
       <c r="B109" s="2">
@@ -11225,8 +11225,8 @@
         <v>5578725</v>
       </c>
     </row>
-    <row r="110" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A110" s="3">
+    <row r="110" spans="1:32">
+      <c r="A110" s="5">
         <v>42521</v>
       </c>
       <c r="B110" s="2">
@@ -11323,8 +11323,8 @@
         <v>7083884</v>
       </c>
     </row>
-    <row r="111" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A111" s="3">
+    <row r="111" spans="1:32">
+      <c r="A111" s="5">
         <v>42551</v>
       </c>
       <c r="B111" s="2">
@@ -11421,8 +11421,8 @@
         <v>8670954</v>
       </c>
     </row>
-    <row r="112" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A112" s="3">
+    <row r="112" spans="1:32">
+      <c r="A112" s="5">
         <v>42582</v>
       </c>
       <c r="B112" s="2">
@@ -11519,8 +11519,8 @@
         <v>10331142</v>
       </c>
     </row>
-    <row r="113" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A113" s="3">
+    <row r="113" spans="1:32">
+      <c r="A113" s="5">
         <v>42613</v>
       </c>
       <c r="B113" s="2">
@@ -11617,8 +11617,8 @@
         <v>11961506</v>
       </c>
     </row>
-    <row r="114" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A114" s="3">
+    <row r="114" spans="1:32">
+      <c r="A114" s="5">
         <v>42643</v>
       </c>
       <c r="B114" s="2">
@@ -11715,8 +11715,8 @@
         <v>13434121</v>
       </c>
     </row>
-    <row r="115" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A115" s="3">
+    <row r="115" spans="1:32">
+      <c r="A115" s="5">
         <v>42674</v>
       </c>
       <c r="B115" s="2">
@@ -11813,8 +11813,8 @@
         <v>14964913</v>
       </c>
     </row>
-    <row r="116" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A116" s="3">
+    <row r="116" spans="1:32">
+      <c r="A116" s="5">
         <v>42704</v>
       </c>
       <c r="B116" s="2">
@@ -11911,8 +11911,8 @@
         <v>16471294</v>
       </c>
     </row>
-    <row r="117" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A117" s="3">
+    <row r="117" spans="1:32">
+      <c r="A117" s="5">
         <v>42735</v>
       </c>
       <c r="B117" s="2">
@@ -12009,8 +12009,8 @@
         <v>17938372</v>
       </c>
     </row>
-    <row r="118" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A118" s="3">
+    <row r="118" spans="1:32">
+      <c r="A118" s="5">
         <v>42766</v>
       </c>
       <c r="B118" s="2">
@@ -12107,8 +12107,8 @@
         <v>1501500</v>
       </c>
     </row>
-    <row r="119" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A119" s="3">
+    <row r="119" spans="1:32">
+      <c r="A119" s="5">
         <v>42794</v>
       </c>
       <c r="B119" s="2">
@@ -12205,8 +12205,8 @@
         <v>3007340</v>
       </c>
     </row>
-    <row r="120" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A120" s="3">
+    <row r="120" spans="1:32">
+      <c r="A120" s="5">
         <v>42825</v>
       </c>
       <c r="B120" s="2">
@@ -12303,8 +12303,8 @@
         <v>4645427</v>
       </c>
     </row>
-    <row r="121" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A121" s="3">
+    <row r="121" spans="1:32">
+      <c r="A121" s="5">
         <v>42855</v>
       </c>
       <c r="B121" s="2">
@@ -12401,8 +12401,8 @@
         <v>6298974</v>
       </c>
     </row>
-    <row r="122" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A122" s="3">
+    <row r="122" spans="1:32">
+      <c r="A122" s="5">
         <v>42886</v>
       </c>
       <c r="B122" s="2">
@@ -12499,8 +12499,8 @@
         <v>7949047</v>
       </c>
     </row>
-    <row r="123" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A123" s="3">
+    <row r="123" spans="1:32">
+      <c r="A123" s="5">
         <v>42916</v>
       </c>
       <c r="B123" s="2">
@@ -12597,8 +12597,8 @@
         <v>9684775</v>
       </c>
     </row>
-    <row r="124" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A124" s="3">
+    <row r="124" spans="1:32">
+      <c r="A124" s="5">
         <v>42947</v>
       </c>
       <c r="B124" s="2">
@@ -12695,8 +12695,8 @@
         <v>11524568</v>
       </c>
     </row>
-    <row r="125" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A125" s="3">
+    <row r="125" spans="1:32">
+      <c r="A125" s="5">
         <v>42978</v>
       </c>
       <c r="B125" s="2">
@@ -12793,8 +12793,8 @@
         <v>13263271</v>
       </c>
     </row>
-    <row r="126" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A126" s="3">
+    <row r="126" spans="1:32">
+      <c r="A126" s="5">
         <v>43008</v>
       </c>
       <c r="B126" s="2">
@@ -12891,8 +12891,8 @@
         <v>14887085</v>
       </c>
     </row>
-    <row r="127" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A127" s="3">
+    <row r="127" spans="1:32">
+      <c r="A127" s="5">
         <v>43039</v>
       </c>
       <c r="B127" s="2">
@@ -12989,8 +12989,8 @@
         <v>16594667</v>
       </c>
     </row>
-    <row r="128" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A128" s="3">
+    <row r="128" spans="1:32">
+      <c r="A128" s="5">
         <v>43069</v>
       </c>
       <c r="B128" s="2">
@@ -13087,8 +13087,8 @@
         <v>18257077</v>
       </c>
     </row>
-    <row r="129" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A129" s="3">
+    <row r="129" spans="1:32">
+      <c r="A129" s="5">
         <v>43100</v>
       </c>
       <c r="B129" s="2">
@@ -13185,8 +13185,8 @@
         <v>20010000</v>
       </c>
     </row>
-    <row r="130" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A130" s="3">
+    <row r="130" spans="1:32">
+      <c r="A130" s="5">
         <v>43131</v>
       </c>
       <c r="B130" s="2">
@@ -13283,8 +13283,8 @@
         <v>1840000</v>
       </c>
     </row>
-    <row r="131" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A131" s="3">
+    <row r="131" spans="1:32">
+      <c r="A131" s="5">
         <v>43159</v>
       </c>
       <c r="B131" s="2">
@@ -13381,8 +13381,8 @@
         <v>3450000</v>
       </c>
     </row>
-    <row r="132" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A132" s="3">
+    <row r="132" spans="1:32">
+      <c r="A132" s="5">
         <v>43190</v>
       </c>
       <c r="B132" s="2">
@@ -13479,8 +13479,8 @@
         <v>5140000</v>
       </c>
     </row>
-    <row r="133" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A133" s="3">
+    <row r="133" spans="1:32">
+      <c r="A133" s="5">
         <v>43220</v>
       </c>
       <c r="B133" s="2">
@@ -13577,8 +13577,8 @@
         <v>6860000</v>
       </c>
     </row>
-    <row r="134" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A134" s="3">
+    <row r="134" spans="1:32">
+      <c r="A134" s="5">
         <v>43251</v>
       </c>
       <c r="B134" s="2">
@@ -13675,8 +13675,8 @@
         <v>8580000</v>
       </c>
     </row>
-    <row r="135" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A135" s="3">
+    <row r="135" spans="1:32">
+      <c r="A135" s="5">
         <v>43281</v>
       </c>
       <c r="B135" s="2">
@@ -13773,8 +13773,8 @@
         <v>10340000</v>
       </c>
     </row>
-    <row r="136" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A136" s="3">
+    <row r="136" spans="1:32">
+      <c r="A136" s="5">
         <v>43312</v>
       </c>
       <c r="B136" s="2">
@@ -13871,8 +13871,8 @@
         <v>12260000</v>
       </c>
     </row>
-    <row r="137" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A137" s="3">
+    <row r="137" spans="1:32">
+      <c r="A137" s="5">
         <v>43343</v>
       </c>
       <c r="B137" s="2">
@@ -13969,8 +13969,8 @@
         <v>14180000</v>
       </c>
     </row>
-    <row r="138" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A138" s="3">
+    <row r="138" spans="1:32">
+      <c r="A138" s="5">
         <v>43373</v>
       </c>
       <c r="B138" s="2">
@@ -14067,8 +14067,8 @@
         <v>15930000</v>
       </c>
     </row>
-    <row r="139" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A139" s="3">
+    <row r="139" spans="1:32">
+      <c r="A139" s="5">
         <v>43404</v>
       </c>
       <c r="B139" s="2">
@@ -14165,8 +14165,8 @@
         <v>17720000</v>
       </c>
     </row>
-    <row r="140" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A140" s="3">
+    <row r="140" spans="1:32">
+      <c r="A140" s="5">
         <v>43434</v>
       </c>
       <c r="B140" s="2">
@@ -14263,8 +14263,8 @@
         <v>19530000</v>
       </c>
     </row>
-    <row r="141" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A141" s="3">
+    <row r="141" spans="1:32">
+      <c r="A141" s="5">
         <v>43465</v>
       </c>
       <c r="B141" s="2">
@@ -14361,8 +14361,8 @@
         <v>21380000</v>
       </c>
     </row>
-    <row r="142" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A142" s="3">
+    <row r="142" spans="1:32">
+      <c r="A142" s="5">
         <v>43496</v>
       </c>
       <c r="B142" s="2">
@@ -14459,8 +14459,8 @@
         <v>2010000</v>
       </c>
     </row>
-    <row r="143" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A143" s="3">
+    <row r="143" spans="1:32">
+      <c r="A143" s="5">
         <v>43524</v>
       </c>
       <c r="B143" s="2">
@@ -14557,8 +14557,8 @@
         <v>3810000</v>
       </c>
     </row>
-    <row r="144" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A144" s="3">
+    <row r="144" spans="1:32">
+      <c r="A144" s="5">
         <v>43555</v>
       </c>
       <c r="B144" s="2">
@@ -14655,8 +14655,8 @@
         <v>5720000</v>
       </c>
     </row>
-    <row r="145" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A145" s="3">
+    <row r="145" spans="1:32">
+      <c r="A145" s="5">
         <v>43585</v>
       </c>
       <c r="B145" s="2">
@@ -14753,8 +14753,8 @@
         <v>7560000</v>
       </c>
     </row>
-    <row r="146" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A146" s="3">
+    <row r="146" spans="1:32">
+      <c r="A146" s="5">
         <v>43616</v>
       </c>
       <c r="B146" s="2">
@@ -14851,8 +14851,8 @@
         <v>9400000</v>
       </c>
     </row>
-    <row r="147" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A147" s="3">
+    <row r="147" spans="1:32">
+      <c r="A147" s="5">
         <v>43646</v>
       </c>
       <c r="B147" s="2">
@@ -14949,8 +14949,8 @@
         <v>11290000</v>
       </c>
     </row>
-    <row r="148" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A148" s="3">
+    <row r="148" spans="1:32">
+      <c r="A148" s="5">
         <v>43677</v>
       </c>
       <c r="B148" s="2">
@@ -15047,8 +15047,8 @@
         <v>13330000</v>
       </c>
     </row>
-    <row r="149" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A149" s="3">
+    <row r="149" spans="1:32">
+      <c r="A149" s="5">
         <v>43708</v>
       </c>
       <c r="B149" s="2">
@@ -15145,8 +15145,8 @@
         <v>15410000</v>
       </c>
     </row>
-    <row r="150" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A150" s="3">
+    <row r="150" spans="1:32">
+      <c r="A150" s="5">
         <v>43738</v>
       </c>
       <c r="B150" s="2">
@@ -15243,8 +15243,8 @@
         <v>17270000</v>
       </c>
     </row>
-    <row r="151" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A151" s="3">
+    <row r="151" spans="1:32">
+      <c r="A151" s="5">
         <v>43769</v>
       </c>
       <c r="B151" s="2">
@@ -15341,8 +15341,8 @@
         <v>19230000</v>
       </c>
     </row>
-    <row r="152" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A152" s="3">
+    <row r="152" spans="1:32">
+      <c r="A152" s="5">
         <v>43799</v>
       </c>
       <c r="B152" s="2">
@@ -15439,8 +15439,8 @@
         <v>21230000</v>
       </c>
     </row>
-    <row r="153" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A153" s="3">
+    <row r="153" spans="1:32">
+      <c r="A153" s="5">
         <v>43830</v>
       </c>
       <c r="B153" s="2">
@@ -15537,8 +15537,8 @@
         <v>28680000</v>
       </c>
     </row>
-    <row r="154" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A154" s="3">
+    <row r="154" spans="1:32">
+      <c r="A154" s="5">
         <v>43861</v>
       </c>
       <c r="B154" s="2">
@@ -15635,8 +15635,8 @@
         <v>2090000</v>
       </c>
     </row>
-    <row r="155" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A155" s="3">
+    <row r="155" spans="1:32">
+      <c r="A155" s="5">
         <v>43890</v>
       </c>
       <c r="B155" s="2">
@@ -15733,8 +15733,8 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="156" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A156" s="3">
+    <row r="156" spans="1:32">
+      <c r="A156" s="5">
         <v>43921</v>
       </c>
       <c r="B156" s="2">
@@ -15831,8 +15831,8 @@
         <v>6020000</v>
       </c>
     </row>
-    <row r="157" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A157" s="3">
+    <row r="157" spans="1:32">
+      <c r="A157" s="5">
         <v>43951</v>
       </c>
       <c r="B157" s="2">
@@ -15929,8 +15929,8 @@
         <v>7980000</v>
       </c>
     </row>
-    <row r="158" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A158" s="3">
+    <row r="158" spans="1:32">
+      <c r="A158" s="5">
         <v>43982</v>
       </c>
       <c r="B158" s="2">
@@ -16027,8 +16027,8 @@
         <v>9900000</v>
       </c>
     </row>
-    <row r="159" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A159" s="3">
+    <row r="159" spans="1:32">
+      <c r="A159" s="5">
         <v>44012</v>
       </c>
       <c r="B159" s="2">
@@ -16125,8 +16125,8 @@
         <v>11980000</v>
       </c>
     </row>
-    <row r="160" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A160" s="3">
+    <row r="160" spans="1:32">
+      <c r="A160" s="5">
         <v>44043</v>
       </c>
       <c r="B160" s="2">
@@ -16223,8 +16223,8 @@
         <v>14040000</v>
       </c>
     </row>
-    <row r="161" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A161" s="3">
+    <row r="161" spans="1:32">
+      <c r="A161" s="5">
         <v>44074</v>
       </c>
       <c r="B161" s="2">
@@ -16321,8 +16321,8 @@
         <v>16050000</v>
       </c>
     </row>
-    <row r="162" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A162" s="3">
+    <row r="162" spans="1:32">
+      <c r="A162" s="5">
         <v>44104</v>
       </c>
       <c r="B162" s="2">
@@ -16419,8 +16419,8 @@
         <v>17990000</v>
       </c>
     </row>
-    <row r="163" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A163" s="3">
+    <row r="163" spans="1:32">
+      <c r="A163" s="5">
         <v>44135</v>
       </c>
       <c r="B163" s="2">
@@ -16517,8 +16517,8 @@
         <v>20040000</v>
       </c>
     </row>
-    <row r="164" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A164" s="3">
+    <row r="164" spans="1:32">
+      <c r="A164" s="5">
         <v>44165</v>
       </c>
       <c r="B164" s="2">
@@ -16615,8 +16615,8 @@
         <v>22230000</v>
       </c>
     </row>
-    <row r="165" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A165" s="3">
+    <row r="165" spans="1:32">
+      <c r="A165" s="5">
         <v>44196</v>
       </c>
       <c r="B165" s="2">
@@ -16713,8 +16713,8 @@
         <v>29980000</v>
       </c>
     </row>
-    <row r="166" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A166" s="3">
+    <row r="166" spans="1:32">
+      <c r="A166" s="5">
         <v>44227</v>
       </c>
       <c r="B166" s="2">
@@ -16811,8 +16811,8 @@
         <v>2270000</v>
       </c>
     </row>
-    <row r="167" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A167" s="3">
+    <row r="167" spans="1:32">
+      <c r="A167" s="5">
         <v>44255</v>
       </c>
       <c r="B167" s="2">
@@ -16909,8 +16909,8 @@
         <v>4470000</v>
       </c>
     </row>
-    <row r="168" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A168" s="3">
+    <row r="168" spans="1:32">
+      <c r="A168" s="5">
         <v>44286</v>
       </c>
       <c r="B168" s="2">
@@ -17007,8 +17007,8 @@
         <v>6760000</v>
       </c>
     </row>
-    <row r="169" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A169" s="3">
+    <row r="169" spans="1:32">
+      <c r="A169" s="5">
         <v>44316</v>
       </c>
       <c r="B169" s="2">
@@ -17105,8 +17105,8 @@
         <v>8970000</v>
       </c>
     </row>
-    <row r="170" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A170" s="3">
+    <row r="170" spans="1:32">
+      <c r="A170" s="5">
         <v>44347</v>
       </c>
       <c r="B170" s="2">
@@ -17203,8 +17203,8 @@
         <v>11220000</v>
       </c>
     </row>
-    <row r="171" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A171" s="3">
+    <row r="171" spans="1:32">
+      <c r="A171" s="5">
         <v>44377</v>
       </c>
       <c r="B171" s="2">
@@ -17301,8 +17301,8 @@
         <v>13420000</v>
       </c>
     </row>
-    <row r="172" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A172" s="3">
+    <row r="172" spans="1:32">
+      <c r="A172" s="5">
         <v>44408</v>
       </c>
       <c r="B172" s="2">
@@ -17399,8 +17399,8 @@
         <v>15740000</v>
       </c>
     </row>
-    <row r="173" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A173" s="3">
+    <row r="173" spans="1:32">
+      <c r="A173" s="5">
         <v>44439</v>
       </c>
       <c r="B173" s="2">
@@ -17497,8 +17497,8 @@
         <v>18090000</v>
       </c>
     </row>
-    <row r="174" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A174" s="3">
+    <row r="174" spans="1:32">
+      <c r="A174" s="5">
         <v>44469</v>
       </c>
       <c r="B174" s="2">
@@ -17595,8 +17595,8 @@
         <v>20260000</v>
       </c>
     </row>
-    <row r="175" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A175" s="3">
+    <row r="175" spans="1:32">
+      <c r="A175" s="5">
         <v>44500</v>
       </c>
       <c r="B175" s="2">
@@ -17693,8 +17693,8 @@
         <v>22600000</v>
       </c>
     </row>
-    <row r="176" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A176" s="3">
+    <row r="176" spans="1:32">
+      <c r="A176" s="5">
         <v>44530</v>
       </c>
       <c r="B176" s="2">
@@ -17791,8 +17791,8 @@
         <v>24900000</v>
       </c>
     </row>
-    <row r="177" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A177" s="3">
+    <row r="177" spans="1:32">
+      <c r="A177" s="5">
         <v>44561</v>
       </c>
       <c r="B177" s="2">
@@ -17889,8 +17889,8 @@
         <v>35270000</v>
       </c>
     </row>
-    <row r="178" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A178" s="3">
+    <row r="178" spans="1:32">
+      <c r="A178" s="5">
         <v>44592</v>
       </c>
       <c r="B178" s="2">
@@ -17987,8 +17987,8 @@
         <v>2840000</v>
       </c>
     </row>
-    <row r="179" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A179" s="3">
+    <row r="179" spans="1:32">
+      <c r="A179" s="5">
         <v>44620</v>
       </c>
       <c r="B179" s="2">
@@ -18085,8 +18085,8 @@
         <v>5530000</v>
       </c>
     </row>
-    <row r="180" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A180" s="3">
+    <row r="180" spans="1:32">
+      <c r="A180" s="5">
         <v>44651</v>
       </c>
       <c r="B180" s="2">
@@ -18183,8 +18183,8 @@
         <v>8370000</v>
       </c>
     </row>
-    <row r="181" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A181" s="3">
+    <row r="181" spans="1:32">
+      <c r="A181" s="5">
         <v>44681</v>
       </c>
       <c r="B181" s="2">
@@ -18281,8 +18281,8 @@
         <v>11390000</v>
       </c>
     </row>
-    <row r="182" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A182" s="3">
+    <row r="182" spans="1:32">
+      <c r="A182" s="5">
         <v>44712</v>
       </c>
       <c r="B182" s="2">
@@ -18379,8 +18379,8 @@
         <v>14260000</v>
       </c>
     </row>
-    <row r="183" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A183" s="3">
+    <row r="183" spans="1:32">
+      <c r="A183" s="5">
         <v>44742</v>
       </c>
       <c r="B183" s="2">
@@ -18477,8 +18477,8 @@
         <v>17270000</v>
       </c>
     </row>
-    <row r="184" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A184" s="3">
+    <row r="184" spans="1:32">
+      <c r="A184" s="5">
         <v>44773</v>
       </c>
       <c r="B184" s="2">
@@ -18575,8 +18575,8 @@
         <v>20420000</v>
       </c>
     </row>
-    <row r="185" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A185" s="3">
+    <row r="185" spans="1:32">
+      <c r="A185" s="5">
         <v>44804</v>
       </c>
       <c r="B185" s="2">
@@ -18673,8 +18673,8 @@
         <v>23380000</v>
       </c>
     </row>
-    <row r="186" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A186" s="3">
+    <row r="186" spans="1:32">
+      <c r="A186" s="5">
         <v>44834</v>
       </c>
       <c r="B186" s="2">
@@ -18771,8 +18771,8 @@
         <v>25950000</v>
       </c>
     </row>
-    <row r="187" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A187" s="3">
+    <row r="187" spans="1:32">
+      <c r="A187" s="5">
         <v>44865</v>
       </c>
       <c r="B187" s="2">
@@ -18869,8 +18869,8 @@
         <v>28500000</v>
       </c>
     </row>
-    <row r="188" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A188" s="3">
+    <row r="188" spans="1:32">
+      <c r="A188" s="5">
         <v>44895</v>
       </c>
       <c r="B188" s="2">
@@ -18967,8 +18967,8 @@
         <v>31360000</v>
       </c>
     </row>
-    <row r="189" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A189" s="3">
+    <row r="189" spans="1:32">
+      <c r="A189" s="5">
         <v>44926</v>
       </c>
       <c r="B189" s="2">
@@ -19065,8 +19065,8 @@
         <v>34660000</v>
       </c>
     </row>
-    <row r="190" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A190" s="3">
+    <row r="190" spans="1:32">
+      <c r="A190" s="5">
         <v>45016</v>
       </c>
       <c r="B190" s="2">
@@ -19163,8 +19163,8 @@
         <v>9160000</v>
       </c>
     </row>
-    <row r="191" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A191" s="3">
+    <row r="191" spans="1:32">
+      <c r="A191" s="5">
         <v>45046</v>
       </c>
       <c r="B191" s="2">
@@ -19261,8 +19261,8 @@
         <v>12070000</v>
       </c>
     </row>
-    <row r="192" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A192" s="3">
+    <row r="192" spans="1:32">
+      <c r="A192" s="5">
         <v>45077</v>
       </c>
       <c r="B192" s="2">
@@ -19357,6 +19357,300 @@
       </c>
       <c r="AF192" s="2">
         <v>15080000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:32">
+      <c r="A193" s="5">
+        <v>45107</v>
+      </c>
+      <c r="B193" s="2">
+        <v>6430000</v>
+      </c>
+      <c r="C193" s="2">
+        <v>4950000</v>
+      </c>
+      <c r="D193" s="2">
+        <v>22500000</v>
+      </c>
+      <c r="E193" s="2">
+        <v>14010000</v>
+      </c>
+      <c r="F193" s="2">
+        <v>22960000</v>
+      </c>
+      <c r="G193" s="2">
+        <v>12950000</v>
+      </c>
+      <c r="H193" s="2">
+        <v>4580000</v>
+      </c>
+      <c r="I193" s="2">
+        <v>5900000</v>
+      </c>
+      <c r="J193" s="2">
+        <v>8420000</v>
+      </c>
+      <c r="K193" s="2">
+        <v>36000000</v>
+      </c>
+      <c r="L193" s="2">
+        <v>27780000</v>
+      </c>
+      <c r="M193" s="2">
+        <v>14770000</v>
+      </c>
+      <c r="N193" s="2">
+        <v>14070000</v>
+      </c>
+      <c r="O193" s="2">
+        <v>9310000</v>
+      </c>
+      <c r="P193" s="2">
+        <v>37960000</v>
+      </c>
+      <c r="Q193" s="2">
+        <v>19080000</v>
+      </c>
+      <c r="R193" s="2">
+        <v>12420000</v>
+      </c>
+      <c r="S193" s="2">
+        <v>10650000</v>
+      </c>
+      <c r="T193" s="2">
+        <v>38230000</v>
+      </c>
+      <c r="U193" s="2">
+        <v>11560000</v>
+      </c>
+      <c r="V193" s="2">
+        <v>2280000</v>
+      </c>
+      <c r="W193" s="2">
+        <v>6700000</v>
+      </c>
+      <c r="X193" s="2">
+        <v>17280000</v>
+      </c>
+      <c r="Y193" s="2">
+        <v>8500000</v>
+      </c>
+      <c r="Z193" s="2">
+        <v>11420000</v>
+      </c>
+      <c r="AA193" s="2">
+        <v>640000</v>
+      </c>
+      <c r="AB193" s="2">
+        <v>11660000</v>
+      </c>
+      <c r="AC193" s="2">
+        <v>7970000</v>
+      </c>
+      <c r="AD193" s="2">
+        <v>4970000</v>
+      </c>
+      <c r="AE193" s="2">
+        <v>6660000</v>
+      </c>
+      <c r="AF193" s="2">
+        <v>18150000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:32">
+      <c r="A194" s="5">
+        <v>45138</v>
+      </c>
+      <c r="B194" s="2">
+        <v>7770000</v>
+      </c>
+      <c r="C194" s="2">
+        <v>5970000</v>
+      </c>
+      <c r="D194" s="2">
+        <v>26980000</v>
+      </c>
+      <c r="E194" s="2">
+        <v>16490000</v>
+      </c>
+      <c r="F194" s="2">
+        <v>27130000</v>
+      </c>
+      <c r="G194" s="2">
+        <v>15220000</v>
+      </c>
+      <c r="H194" s="2">
+        <v>5310000</v>
+      </c>
+      <c r="I194" s="2">
+        <v>6790000</v>
+      </c>
+      <c r="J194" s="2">
+        <v>10430000</v>
+      </c>
+      <c r="K194" s="2">
+        <v>43830000</v>
+      </c>
+      <c r="L194" s="2">
+        <v>34340000</v>
+      </c>
+      <c r="M194" s="2">
+        <v>18010000</v>
+      </c>
+      <c r="N194" s="2">
+        <v>17220000</v>
+      </c>
+      <c r="O194" s="2">
+        <v>11370000</v>
+      </c>
+      <c r="P194" s="2">
+        <v>45400000</v>
+      </c>
+      <c r="Q194" s="2">
+        <v>23350000</v>
+      </c>
+      <c r="R194" s="2">
+        <v>15220000</v>
+      </c>
+      <c r="S194" s="2">
+        <v>13120000</v>
+      </c>
+      <c r="T194" s="2">
+        <v>47250000</v>
+      </c>
+      <c r="U194" s="2">
+        <v>13970000</v>
+      </c>
+      <c r="V194" s="2">
+        <v>2750000</v>
+      </c>
+      <c r="W194" s="2">
+        <v>8180000</v>
+      </c>
+      <c r="X194" s="2">
+        <v>20920000</v>
+      </c>
+      <c r="Y194" s="2">
+        <v>10050000</v>
+      </c>
+      <c r="Z194" s="2">
+        <v>13570000</v>
+      </c>
+      <c r="AA194" s="2">
+        <v>750000</v>
+      </c>
+      <c r="AB194" s="2">
+        <v>13900000</v>
+      </c>
+      <c r="AC194" s="2">
+        <v>9350000</v>
+      </c>
+      <c r="AD194" s="2">
+        <v>5800000</v>
+      </c>
+      <c r="AE194" s="2">
+        <v>7830000</v>
+      </c>
+      <c r="AF194" s="2">
+        <v>21400000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:32">
+      <c r="A195" s="5">
+        <v>45169</v>
+      </c>
+      <c r="B195" s="2">
+        <v>9050000</v>
+      </c>
+      <c r="C195" s="2">
+        <v>6970000</v>
+      </c>
+      <c r="D195" s="2">
+        <v>31300000</v>
+      </c>
+      <c r="E195" s="2">
+        <v>18970000</v>
+      </c>
+      <c r="F195" s="2">
+        <v>31320000</v>
+      </c>
+      <c r="G195" s="2">
+        <v>17490000</v>
+      </c>
+      <c r="H195" s="2">
+        <v>6040000</v>
+      </c>
+      <c r="I195" s="2">
+        <v>7700000</v>
+      </c>
+      <c r="J195" s="2">
+        <v>12430000</v>
+      </c>
+      <c r="K195" s="2">
+        <v>51830000</v>
+      </c>
+      <c r="L195" s="2">
+        <v>40690000</v>
+      </c>
+      <c r="M195" s="2">
+        <v>21320000</v>
+      </c>
+      <c r="N195" s="2">
+        <v>20330000</v>
+      </c>
+      <c r="O195" s="2">
+        <v>13380000</v>
+      </c>
+      <c r="P195" s="2">
+        <v>52830000</v>
+      </c>
+      <c r="Q195" s="2">
+        <v>27520000</v>
+      </c>
+      <c r="R195" s="2">
+        <v>18100000</v>
+      </c>
+      <c r="S195" s="2">
+        <v>15450000</v>
+      </c>
+      <c r="T195" s="2">
+        <v>56150000</v>
+      </c>
+      <c r="U195" s="2">
+        <v>16230000</v>
+      </c>
+      <c r="V195" s="2">
+        <v>3230000</v>
+      </c>
+      <c r="W195" s="2">
+        <v>9730000</v>
+      </c>
+      <c r="X195" s="2">
+        <v>24560000</v>
+      </c>
+      <c r="Y195" s="2">
+        <v>11600000</v>
+      </c>
+      <c r="Z195" s="2">
+        <v>15880000</v>
+      </c>
+      <c r="AA195" s="2">
+        <v>850000</v>
+      </c>
+      <c r="AB195" s="2">
+        <v>16140000</v>
+      </c>
+      <c r="AC195" s="2">
+        <v>10760000</v>
+      </c>
+      <c r="AD195" s="2">
+        <v>6630000</v>
+      </c>
+      <c r="AE195" s="2">
+        <v>9060000</v>
+      </c>
+      <c r="AF195" s="2">
+        <v>24720000</v>
       </c>
     </row>
   </sheetData>
